--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3361" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="512">
   <si>
     <t>Path</t>
   </si>
@@ -383,6 +383,22 @@
   </si>
   <si>
     <t>DDCC Country Of Vaccination for Immunization</t>
+  </si>
+  <si>
+    <t>validFrom</t>
+  </si>
+  <si>
+    <t>Vaccination valid from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineValidFrom}
+</t>
+  </si>
+  <si>
+    <t>DDCC Vaccine Valid From</t>
+  </si>
+  <si>
+    <t>Date upon which provided vaccination is considered valid</t>
   </si>
   <si>
     <t>Immunization.modifierExtension</t>
@@ -1732,7 +1748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3157,45 +3173,45 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>122</v>
-      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>41</v>
       </c>
@@ -3243,7 +3259,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -3252,7 +3268,7 @@
         <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>103</v>
@@ -3264,7 +3280,7 @@
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>41</v>
@@ -3275,11 +3291,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3292,22 +3308,26 @@
         <v>41</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>41</v>
       </c>
@@ -3355,7 +3375,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3367,27 +3387,27 @@
         <v>41</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3395,32 +3415,30 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -3445,13 +3463,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -3469,13 +3487,13 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>41</v>
@@ -3484,24 +3502,24 @@
         <v>63</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3509,7 +3527,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>51</v>
@@ -3518,22 +3536,22 @@
         <v>41</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3559,13 +3577,13 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -3583,10 +3601,10 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>51</v>
@@ -3598,57 +3616,57 @@
         <v>63</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D17" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -3673,34 +3691,34 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X17" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>51</v>
@@ -3712,53 +3730,55 @@
         <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>162</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="E18" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3785,13 +3805,13 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -3809,34 +3829,34 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -3845,14 +3865,14 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
@@ -3864,7 +3884,7 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>169</v>
@@ -3872,9 +3892,7 @@
       <c r="L19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3911,40 +3929,40 @@
         <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AC19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3959,11 +3977,11 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>43</v>
@@ -3975,23 +3993,21 @@
         <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>176</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
       </c>
@@ -4027,17 +4043,19 @@
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="AC20" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4049,16 +4067,16 @@
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -4067,13 +4085,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>41</v>
       </c>
@@ -4082,10 +4098,10 @@
         <v>51</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -4094,19 +4110,19 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -4143,19 +4159,17 @@
         <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4173,10 +4187,10 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -4185,41 +4199,47 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
@@ -4267,28 +4287,28 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -4299,18 +4319,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>41</v>
@@ -4322,7 +4342,7 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>169</v>
@@ -4330,9 +4350,7 @@
       <c r="L23" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4369,41 +4387,41 @@
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AC23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
       </c>
@@ -4411,45 +4429,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4458,78 +4474,78 @@
         <v>41</v>
       </c>
       <c r="R24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4537,13 +4553,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4552,18 +4568,20 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4572,7 +4590,7 @@
         <v>41</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>41</v>
@@ -4611,7 +4629,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4629,21 +4647,21 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4651,13 +4669,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4666,18 +4684,18 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4701,11 +4719,13 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4723,7 +4743,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4741,10 +4761,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4753,9 +4773,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4763,13 +4783,13 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -4778,17 +4798,17 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4813,13 +4833,11 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4837,7 +4855,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4855,10 +4873,10 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4869,7 +4887,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4892,19 +4910,17 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4953,7 +4969,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4971,10 +4987,10 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4985,7 +5001,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5008,19 +5024,19 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -5069,7 +5085,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5087,10 +5103,10 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -5101,7 +5117,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5109,7 +5125,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>51</v>
@@ -5124,16 +5140,20 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -5181,10 +5201,10 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>51</v>
@@ -5196,16 +5216,16 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="AM30" t="s" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5213,7 +5233,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5221,7 +5241,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -5233,16 +5253,16 @@
         <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5293,10 +5313,10 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>51</v>
@@ -5308,59 +5328,55 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D32" t="s" s="2">
-        <v>251</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5409,10 +5425,10 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>51</v>
@@ -5424,55 +5440,59 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>260</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5521,10 +5541,10 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>51</v>
@@ -5536,19 +5556,19 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -5573,10 +5593,10 @@
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>267</v>
@@ -5584,9 +5604,7 @@
       <c r="L34" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5653,13 +5671,13 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5667,7 +5685,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5687,19 +5705,19 @@
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5725,13 +5743,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -5749,7 +5767,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5767,54 +5785,54 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="E36" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5839,13 +5857,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5863,7 +5881,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5878,38 +5896,40 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="E37" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5918,13 +5938,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5975,7 +5995,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>166</v>
+        <v>285</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5987,19 +6007,19 @@
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>41</v>
+        <v>293</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -6007,18 +6027,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -6030,7 +6050,7 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>169</v>
@@ -6038,9 +6058,7 @@
       <c r="L38" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -6077,40 +6095,40 @@
         <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AC38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE38" t="s" s="2">
+      <c r="AF38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
@@ -6121,18 +6139,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -6141,19 +6159,19 @@
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>292</v>
+        <v>174</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>175</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>294</v>
+        <v>126</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6191,31 +6209,31 @@
         <v>41</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
@@ -6224,7 +6242,7 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -6235,7 +6253,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6258,16 +6276,16 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6293,40 +6311,40 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>63</v>
@@ -6349,7 +6367,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6372,16 +6390,16 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6407,13 +6425,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6452,18 +6470,18 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6471,13 +6489,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -6486,16 +6504,16 @@
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6545,7 +6563,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6566,7 +6584,7 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>94</v>
+        <v>315</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6585,7 +6603,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
@@ -6597,18 +6615,20 @@
         <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6657,7 +6677,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6675,29 +6695,27 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>321</v>
+        <v>94</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>322</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D44" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6714,13 +6732,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>53</v>
+        <v>322</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6771,7 +6789,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6789,27 +6807,29 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL44" t="s" s="2">
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="E45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6817,7 +6837,7 @@
         <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -6826,13 +6846,13 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6883,7 +6903,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6901,21 +6921,21 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6938,7 +6958,7 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>337</v>
@@ -6971,13 +6991,13 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -6995,7 +7015,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7013,21 +7033,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>343</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7050,13 +7070,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7083,13 +7103,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -7107,7 +7127,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7125,21 +7145,21 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7162,13 +7182,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>353</v>
+        <v>148</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7195,13 +7215,13 @@
         <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -7219,7 +7239,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7237,21 +7257,21 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7262,7 +7282,7 @@
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>41</v>
@@ -7271,16 +7291,16 @@
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7331,13 +7351,13 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
@@ -7346,13 +7366,13 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7363,7 +7383,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7374,7 +7394,7 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
@@ -7383,16 +7403,16 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>164</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>165</v>
+        <v>366</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7443,28 +7463,28 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>166</v>
+        <v>363</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>41</v>
+        <v>368</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>167</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7475,18 +7495,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>41</v>
@@ -7498,7 +7518,7 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>169</v>
@@ -7506,9 +7526,7 @@
       <c r="L51" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7557,28 +7575,28 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7589,11 +7607,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>368</v>
+        <v>123</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7606,26 +7624,24 @@
         <v>41</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>369</v>
+        <v>174</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>41</v>
       </c>
@@ -7673,7 +7689,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>371</v>
+        <v>177</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7694,7 +7710,7 @@
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7709,35 +7725,39 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7761,52 +7781,52 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>375</v>
+        <v>41</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>377</v>
+        <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>378</v>
+        <v>94</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7817,17 +7837,15 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D54" t="s" s="2">
-        <v>380</v>
-      </c>
+      <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>51</v>
@@ -7842,17 +7860,15 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>381</v>
+        <v>148</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7877,13 +7893,13 @@
         <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>41</v>
@@ -7901,10 +7917,10 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>51</v>
@@ -7916,16 +7932,16 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>387</v>
+        <v>41</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7933,18 +7949,20 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="E55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -7956,15 +7974,17 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K55" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -8013,13 +8033,13 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -8028,16 +8048,16 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -8045,7 +8065,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8065,16 +8085,16 @@
         <v>41</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>143</v>
+        <v>394</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8101,13 +8121,13 @@
         <v>41</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>398</v>
+        <v>41</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>41</v>
@@ -8125,7 +8145,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8140,13 +8160,13 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8157,7 +8177,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8180,13 +8200,13 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>403</v>
+        <v>148</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8213,13 +8233,13 @@
         <v>41</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>41</v>
+        <v>403</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>41</v>
+        <v>404</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>41</v>
@@ -8237,7 +8257,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8258,7 +8278,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>94</v>
+        <v>406</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8269,7 +8289,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8280,36 +8300,32 @@
         <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>218</v>
+        <v>408</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M58" t="s" s="2">
         <v>409</v>
       </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P58" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8353,13 +8369,13 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
@@ -8368,10 +8384,10 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>41</v>
+        <v>410</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>411</v>
+        <v>41</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>94</v>
@@ -8385,7 +8401,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8396,32 +8412,36 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="Q59" t="s" s="2">
         <v>41</v>
       </c>
@@ -8441,13 +8461,13 @@
         <v>41</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>415</v>
+        <v>41</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>416</v>
+        <v>41</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>41</v>
@@ -8465,13 +8485,13 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
@@ -8483,7 +8503,7 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>41</v>
+        <v>416</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>94</v>
@@ -8520,7 +8540,7 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>359</v>
+        <v>148</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>418</v>
@@ -8553,13 +8573,13 @@
         <v>41</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>41</v>
@@ -8589,7 +8609,7 @@
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
@@ -8609,7 +8629,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8620,7 +8640,7 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>41</v>
@@ -8632,13 +8652,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>164</v>
+        <v>423</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>165</v>
+        <v>424</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8689,19 +8709,19 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>166</v>
+        <v>422</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>41</v>
+        <v>425</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
@@ -8710,7 +8730,7 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>41</v>
@@ -8721,18 +8741,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8744,7 +8764,7 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>169</v>
@@ -8752,9 +8772,7 @@
       <c r="L62" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -8803,28 +8821,28 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
@@ -8835,11 +8853,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>368</v>
+        <v>123</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8852,26 +8870,24 @@
         <v>41</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>174</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>41</v>
       </c>
@@ -8919,7 +8935,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>371</v>
+        <v>177</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8940,7 +8956,7 @@
         <v>41</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -8951,39 +8967,43 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>41</v>
       </c>
@@ -9031,25 +9051,25 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>94</v>
@@ -9063,7 +9083,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9086,13 +9106,13 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9143,7 +9163,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9161,7 +9181,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>41</v>
+        <v>432</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>94</v>
@@ -9175,7 +9195,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9198,13 +9218,13 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>252</v>
+        <v>65</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9255,7 +9275,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9273,7 +9293,7 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>434</v>
+        <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>94</v>
@@ -9287,7 +9307,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9310,13 +9330,13 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9367,7 +9387,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9385,7 +9405,7 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>94</v>
@@ -9399,7 +9419,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9410,7 +9430,7 @@
         <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>41</v>
@@ -9422,13 +9442,13 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9455,13 +9475,13 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>442</v>
+        <v>41</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>443</v>
+        <v>41</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9479,13 +9499,13 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>41</v>
@@ -9497,7 +9517,7 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>94</v>
@@ -9511,7 +9531,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9522,7 +9542,7 @@
         <v>42</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>41</v>
@@ -9534,13 +9554,13 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9567,14 +9587,14 @@
         <v>41</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="Y69" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
       </c>
@@ -9591,13 +9611,13 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>41</v>
@@ -9609,7 +9629,7 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>41</v>
+        <v>449</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>94</v>
@@ -9634,7 +9654,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9646,7 +9666,7 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>359</v>
+        <v>148</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>451</v>
@@ -9654,9 +9674,7 @@
       <c r="L70" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9681,13 +9699,13 @@
         <v>41</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9711,7 +9729,7 @@
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>41</v>
@@ -9723,10 +9741,10 @@
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>454</v>
+        <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>455</v>
+        <v>94</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9737,7 +9755,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9748,7 +9766,7 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>41</v>
@@ -9760,15 +9778,17 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>164</v>
+        <v>456</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>41</v>
@@ -9817,28 +9837,28 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>166</v>
+        <v>455</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>41</v>
+        <v>459</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>167</v>
+        <v>460</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9849,18 +9869,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>41</v>
@@ -9872,7 +9892,7 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>169</v>
@@ -9880,9 +9900,7 @@
       <c r="L72" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -9931,28 +9949,28 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -9963,11 +9981,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>368</v>
+        <v>123</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9980,26 +9998,24 @@
         <v>41</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>369</v>
+        <v>174</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>41</v>
       </c>
@@ -10047,7 +10063,7 @@
         <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>371</v>
+        <v>177</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10068,7 +10084,7 @@
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10079,39 +10095,43 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>460</v>
+        <v>374</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>41</v>
       </c>
@@ -10159,28 +10179,28 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>462</v>
+        <v>41</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>258</v>
+        <v>94</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10191,7 +10211,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10214,7 +10234,7 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>464</v>
+        <v>257</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>465</v>
@@ -10271,7 +10291,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10292,7 +10312,7 @@
         <v>467</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>468</v>
+        <v>263</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10303,7 +10323,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10326,7 +10346,7 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>218</v>
+        <v>469</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>470</v>
@@ -10383,7 +10403,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10423,13 +10443,13 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>41</v>
@@ -10438,7 +10458,7 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>359</v>
+        <v>223</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>475</v>
@@ -10483,14 +10503,16 @@
         <v>41</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AB77" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC77" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
         <v>474</v>
@@ -10499,7 +10521,7 @@
         <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
@@ -10511,10 +10533,10 @@
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>41</v>
+        <v>477</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>94</v>
+        <v>478</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10525,7 +10547,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10533,13 +10555,13 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>41</v>
@@ -10548,13 +10570,13 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>164</v>
+        <v>480</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>165</v>
+        <v>481</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10593,31 +10615,29 @@
         <v>41</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>166</v>
+        <v>479</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>41</v>
@@ -10626,7 +10646,7 @@
         <v>41</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10637,18 +10657,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>41</v>
@@ -10660,7 +10680,7 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>169</v>
@@ -10668,9 +10688,7 @@
       <c r="L79" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>41</v>
@@ -10719,28 +10737,28 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10751,11 +10769,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>368</v>
+        <v>123</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10768,26 +10786,24 @@
         <v>41</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>369</v>
+        <v>174</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>41</v>
       </c>
@@ -10835,7 +10851,7 @@
         <v>41</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>371</v>
+        <v>177</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10856,7 +10872,7 @@
         <v>41</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>41</v>
@@ -10867,39 +10883,43 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>482</v>
+        <v>374</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>41</v>
       </c>
@@ -10947,19 +10967,19 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>481</v>
+        <v>376</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>41</v>
@@ -10979,7 +10999,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11002,13 +11022,13 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11059,7 +11079,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11091,7 +11111,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11102,7 +11122,7 @@
         <v>42</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>41</v>
@@ -11114,13 +11134,13 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11147,13 +11167,13 @@
         <v>41</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>490</v>
+        <v>41</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>491</v>
+        <v>41</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>41</v>
@@ -11171,13 +11191,13 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>41</v>
@@ -11211,10 +11231,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>41</v>
@@ -11226,17 +11246,15 @@
         <v>41</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L84" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>496</v>
-      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11261,13 +11279,13 @@
         <v>41</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>41</v>
+        <v>495</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>41</v>
+        <v>496</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11288,10 +11306,10 @@
         <v>492</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>41</v>
@@ -11325,7 +11343,7 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>51</v>
@@ -11340,16 +11358,16 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11402,7 +11420,7 @@
         <v>497</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>51</v>
@@ -11429,25 +11447,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>41</v>
@@ -11456,15 +11472,17 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>359</v>
+        <v>498</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>41</v>
@@ -11513,13 +11531,13 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>41</v>
@@ -11543,23 +11561,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B87" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="C87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>41</v>
@@ -11568,13 +11588,13 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>53</v>
+        <v>364</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>164</v>
+        <v>480</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>165</v>
+        <v>481</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11625,19 +11645,19 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>166</v>
+        <v>479</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>41</v>
@@ -11646,7 +11666,7 @@
         <v>41</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>41</v>
@@ -11657,18 +11677,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>41</v>
@@ -11680,7 +11700,7 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>169</v>
@@ -11688,9 +11708,7 @@
       <c r="L88" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>41</v>
@@ -11739,28 +11757,28 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>41</v>
@@ -11771,11 +11789,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>368</v>
+        <v>123</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11788,26 +11806,24 @@
         <v>41</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>369</v>
+        <v>174</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>370</v>
+        <v>175</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>41</v>
       </c>
@@ -11855,7 +11871,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>371</v>
+        <v>177</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11876,7 +11892,7 @@
         <v>41</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>41</v>
@@ -11887,39 +11903,43 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>482</v>
+        <v>374</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>41</v>
       </c>
@@ -11967,19 +11987,19 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>481</v>
+        <v>376</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>41</v>
@@ -11999,7 +12019,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12022,13 +12042,13 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>501</v>
+        <v>53</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12079,7 +12099,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12111,20 +12131,18 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D92" t="s" s="2">
-        <v>502</v>
-      </c>
+      <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>41</v>
@@ -12136,13 +12154,13 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>143</v>
+        <v>506</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12169,11 +12187,13 @@
         <v>41</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="X92" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y92" t="s" s="2">
-        <v>503</v>
+        <v>41</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>41</v>
@@ -12191,13 +12211,13 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>41</v>
@@ -12221,7 +12241,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
         <v>492</v>
       </c>
@@ -12230,16 +12250,16 @@
         <v>41</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
@@ -12248,17 +12268,15 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>505</v>
+        <v>148</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>496</v>
-      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>41</v>
@@ -12283,13 +12301,11 @@
         <v>41</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>41</v>
@@ -12310,10 +12326,10 @@
         <v>492</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>41</v>
@@ -12337,7 +12353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>497</v>
       </c>
@@ -12346,16 +12362,16 @@
         <v>41</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>41</v>
@@ -12364,16 +12380,16 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12426,7 +12442,7 @@
         <v>497</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>51</v>
@@ -12453,8 +12469,124 @@
         <v>41</v>
       </c>
     </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN94">
+  <autoFilter ref="A1:AN95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12464,7 +12596,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="510">
   <si>
     <t>Path</t>
   </si>
@@ -592,7 +592,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">exists:system}
 </t>
   </si>
   <si>
@@ -629,9 +629,6 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>urn:EXAMPLE-who-:smart:vaccine-certificate:RC1:coding</t>
-  </si>
-  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>https://worldhealthorganization.github.io/ddcc/ValueSet/who-ddcc-vaccines-covid-19</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -4590,46 +4584,46 @@
         <v>41</v>
       </c>
       <c r="R25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4647,10 +4641,10 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4661,7 +4655,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4687,13 +4681,13 @@
         <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4743,7 +4737,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4761,10 +4755,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4775,7 +4769,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4801,14 +4795,14 @@
         <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4833,11 +4827,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4855,7 +4851,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4873,10 +4869,10 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4887,7 +4883,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4913,14 +4909,14 @@
         <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4969,7 +4965,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4987,10 +4983,10 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -5001,7 +4997,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5024,19 +5020,19 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -5085,7 +5081,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5103,10 +5099,10 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -5117,7 +5113,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5143,16 +5139,16 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -5201,7 +5197,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5219,10 +5215,10 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5233,7 +5229,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5256,13 +5252,13 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5313,7 +5309,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>51</v>
@@ -5328,16 +5324,16 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5345,7 +5341,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5368,13 +5364,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5425,7 +5421,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5440,16 +5436,16 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5457,14 +5453,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E33" t="s" s="2">
         <v>51</v>
@@ -5482,16 +5478,16 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5541,7 +5537,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -5556,24 +5552,24 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5596,13 +5592,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5653,7 +5649,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5674,10 +5670,10 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5685,7 +5681,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5708,16 +5704,16 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5767,7 +5763,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5785,13 +5781,13 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5799,7 +5795,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5825,13 +5821,13 @@
         <v>148</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5860,10 +5856,10 @@
         <v>152</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5881,7 +5877,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5899,13 +5895,13 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5913,14 +5909,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E37" t="s" s="2">
         <v>51</v>
@@ -5938,13 +5934,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5995,7 +5991,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6010,16 +6006,16 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -6027,7 +6023,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6139,7 +6135,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6253,7 +6249,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6279,13 +6275,13 @@
         <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6335,7 +6331,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6344,7 +6340,7 @@
         <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>63</v>
@@ -6367,7 +6363,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6393,13 +6389,13 @@
         <v>65</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6425,31 +6421,31 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="X41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6481,7 +6477,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6507,13 +6503,13 @@
         <v>130</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6563,7 +6559,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6584,7 +6580,7 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6595,7 +6591,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6621,13 +6617,13 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6677,7 +6673,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6709,7 +6705,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6732,13 +6728,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6789,7 +6785,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6807,28 +6803,28 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E45" t="s" s="2">
         <v>42</v>
@@ -6849,10 +6845,10 @@
         <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6903,7 +6899,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6921,21 +6917,21 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6958,13 +6954,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7015,7 +7011,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7033,10 +7029,10 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -7047,7 +7043,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7073,10 +7069,10 @@
         <v>148</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7106,10 +7102,10 @@
         <v>152</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -7127,7 +7123,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7145,21 +7141,21 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7185,10 +7181,10 @@
         <v>148</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7218,10 +7214,10 @@
         <v>152</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -7239,7 +7235,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7257,21 +7253,21 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7294,13 +7290,13 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7351,7 +7347,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7369,10 +7365,10 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7383,7 +7379,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7406,13 +7402,13 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7463,7 +7459,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7478,13 +7474,13 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7495,7 +7491,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7607,7 +7603,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7721,11 +7717,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7747,10 +7743,10 @@
         <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>126</v>
@@ -7805,7 +7801,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7837,7 +7833,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7863,10 +7859,10 @@
         <v>148</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7893,13 +7889,13 @@
         <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>41</v>
@@ -7917,7 +7913,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7932,13 +7928,13 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7949,14 +7945,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E55" t="s" s="2">
         <v>51</v>
@@ -7974,16 +7970,16 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8033,7 +8029,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>51</v>
@@ -8048,16 +8044,16 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -8065,7 +8061,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8088,13 +8084,13 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8145,7 +8141,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8160,13 +8156,13 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8177,7 +8173,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8203,10 +8199,10 @@
         <v>148</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8236,10 +8232,10 @@
         <v>152</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>41</v>
@@ -8257,7 +8253,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8272,13 +8268,13 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8289,7 +8285,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8312,13 +8308,13 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8369,7 +8365,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8384,7 +8380,7 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
@@ -8401,7 +8397,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8424,23 +8420,23 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>41</v>
@@ -8485,7 +8481,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8503,7 +8499,7 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>94</v>
@@ -8517,7 +8513,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8543,10 +8539,10 @@
         <v>148</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8576,10 +8572,10 @@
         <v>152</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>41</v>
@@ -8597,7 +8593,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8629,7 +8625,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8652,13 +8648,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8709,7 +8705,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8721,7 +8717,7 @@
         <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
@@ -8741,7 +8737,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8853,7 +8849,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8967,11 +8963,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8993,10 +8989,10 @@
         <v>97</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>126</v>
@@ -9051,7 +9047,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9083,7 +9079,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9109,10 +9105,10 @@
         <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9163,7 +9159,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9181,7 +9177,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>94</v>
@@ -9195,7 +9191,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9221,10 +9217,10 @@
         <v>65</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9275,7 +9271,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9307,7 +9303,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9330,13 +9326,13 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9387,7 +9383,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9405,7 +9401,7 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>94</v>
@@ -9419,7 +9415,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9442,13 +9438,13 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9499,7 +9495,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9517,7 +9513,7 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>94</v>
@@ -9531,7 +9527,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9557,10 +9553,10 @@
         <v>148</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9590,10 +9586,10 @@
         <v>152</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
@@ -9611,7 +9607,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9629,7 +9625,7 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>94</v>
@@ -9643,7 +9639,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9669,10 +9665,10 @@
         <v>148</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9702,10 +9698,10 @@
         <v>152</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9723,7 +9719,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9755,7 +9751,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9778,16 +9774,16 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9837,7 +9833,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9855,10 +9851,10 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9869,7 +9865,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9981,7 +9977,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10095,11 +10091,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10121,10 +10117,10 @@
         <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>126</v>
@@ -10179,7 +10175,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10211,7 +10207,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10234,13 +10230,13 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10291,7 +10287,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10309,10 +10305,10 @@
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10323,7 +10319,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10346,13 +10342,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10403,7 +10399,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10421,10 +10417,10 @@
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10435,7 +10431,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10458,13 +10454,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10515,7 +10511,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10533,10 +10529,10 @@
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10547,7 +10543,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10570,13 +10566,13 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10615,7 +10611,7 @@
         <v>41</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
@@ -10625,7 +10621,7 @@
         <v>101</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10657,7 +10653,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10769,7 +10765,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10883,11 +10879,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10909,10 +10905,10 @@
         <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>126</v>
@@ -10967,7 +10963,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10999,7 +10995,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11025,10 +11021,10 @@
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11079,7 +11075,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11111,7 +11107,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11134,13 +11130,13 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11191,7 +11187,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11223,7 +11219,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11249,10 +11245,10 @@
         <v>148</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11282,10 +11278,10 @@
         <v>152</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11303,7 +11299,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11335,7 +11331,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11358,16 +11354,16 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11417,7 +11413,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>51</v>
@@ -11449,7 +11445,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11472,16 +11468,16 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11531,7 +11527,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11563,10 +11559,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>41</v>
@@ -11588,13 +11584,13 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11645,7 +11641,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11677,7 +11673,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11789,7 +11785,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11903,11 +11899,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11929,10 +11925,10 @@
         <v>97</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>126</v>
@@ -11987,7 +11983,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12019,7 +12015,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12045,10 +12041,10 @@
         <v>53</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12099,7 +12095,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12131,7 +12127,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12154,13 +12150,13 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12211,7 +12207,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12243,14 +12239,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E93" t="s" s="2">
         <v>42</v>
@@ -12271,10 +12267,10 @@
         <v>148</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12305,7 +12301,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>41</v>
@@ -12323,7 +12319,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12355,14 +12351,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E94" t="s" s="2">
         <v>51</v>
@@ -12380,16 +12376,16 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12439,7 +12435,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>51</v>
@@ -12471,14 +12467,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E95" t="s" s="2">
         <v>42</v>
@@ -12496,16 +12492,16 @@
         <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12555,7 +12551,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -348,7 +348,7 @@
     <t>Vaccine brand</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineBrand}
+    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineBrand}
 </t>
   </si>
   <si>
@@ -365,7 +365,7 @@
     <t>Vaccine market authorization holder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineMarketAuthorization}
+    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineMarketAuthorization}
 </t>
   </si>
   <si>
@@ -378,7 +378,7 @@
     <t>Country of vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCCountryOfVaccination}
+    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCCountryOfVaccination}
 </t>
   </si>
   <si>
@@ -391,7 +391,7 @@
     <t>Vaccination valid from</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineValidFrom}
+    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineValidFrom}
 </t>
   </si>
   <si>
@@ -756,7 +756,7 @@
     <t>Immunization.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPatient)
 </t>
   </si>
   <si>
@@ -1209,7 +1209,7 @@
     <t>Health worker identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPractitioner|https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCPractitioner|http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
@@ -1576,14 +1576,14 @@
     <t>protocolAppliedAuthority</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
+    <t xml:space="preserve">Reference(http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCOrganization)
 </t>
   </si>
   <si>
     <t>Disease or agent targeted</t>
   </si>
   <si>
-    <t>https://worldhealthorganization.github.io/ddcc/ValueSet/who-ddcc-disease-targeted-covid-19</t>
+    <t>http://worldhealthorganization.github.io/ddcc/ValueSet/who-ddcc-disease-targeted-covid-19</t>
   </si>
   <si>
     <t>Dose number</t>
@@ -1775,7 +1775,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.47265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3399" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="511">
   <si>
     <t>Path</t>
   </si>
@@ -592,8 +592,8 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">exists:system}
-</t>
+    <t>exists:system}
+exists:code}</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -606,6 +606,9 @@
   </si>
   <si>
     <t>ddccVaccine</t>
+  </si>
+  <si>
+    <t>http://worldhealthorganization.github.io/ddcc/ValueSet/who-ddcc-vaccines-covid-19</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.coding.id</t>
@@ -1502,7 +1505,7 @@
     <t>The protocol (set of recommendations) being followed by the provider who administered the dose.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:authority}
+    <t xml:space="preserve">profile:authority.resolve()}
 </t>
   </si>
   <si>
@@ -1777,7 +1780,7 @@
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="85.515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="25.70703125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
@@ -4157,7 +4160,7 @@
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>101</v>
@@ -4257,13 +4260,11 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -4313,7 +4314,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4425,7 +4426,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4539,7 +4540,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4565,16 +4566,16 @@
         <v>65</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4623,7 +4624,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4641,10 +4642,10 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -4655,7 +4656,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4681,13 +4682,13 @@
         <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4737,7 +4738,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4755,10 +4756,10 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4769,7 +4770,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4795,14 +4796,14 @@
         <v>71</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4851,7 +4852,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4869,10 +4870,10 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4883,7 +4884,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4909,14 +4910,14 @@
         <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4965,7 +4966,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4983,10 +4984,10 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4997,7 +4998,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5020,19 +5021,19 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -5081,7 +5082,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5099,10 +5100,10 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -5113,7 +5114,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5139,16 +5140,16 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -5197,7 +5198,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5215,10 +5216,10 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -5229,7 +5230,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5252,13 +5253,13 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5309,7 +5310,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>51</v>
@@ -5324,16 +5325,16 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5341,7 +5342,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5364,13 +5365,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5421,7 +5422,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5436,16 +5437,16 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5453,14 +5454,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E33" t="s" s="2">
         <v>51</v>
@@ -5478,16 +5479,16 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5537,7 +5538,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>51</v>
@@ -5552,24 +5553,24 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5592,13 +5593,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5649,7 +5650,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5670,10 +5671,10 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5681,7 +5682,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5704,16 +5705,16 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5763,7 +5764,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5781,13 +5782,13 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5795,7 +5796,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5821,13 +5822,13 @@
         <v>148</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5856,10 +5857,10 @@
         <v>152</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5877,7 +5878,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5895,13 +5896,13 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5909,14 +5910,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E37" t="s" s="2">
         <v>51</v>
@@ -5934,13 +5935,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5991,7 +5992,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6006,16 +6007,16 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -6023,7 +6024,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6135,7 +6136,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6249,7 +6250,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6275,13 +6276,13 @@
         <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6331,7 +6332,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6340,7 +6341,7 @@
         <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>63</v>
@@ -6363,7 +6364,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6389,13 +6390,13 @@
         <v>65</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6421,13 +6422,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6445,7 +6446,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6477,7 +6478,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6503,13 +6504,13 @@
         <v>130</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6559,7 +6560,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6580,7 +6581,7 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
@@ -6591,7 +6592,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6617,13 +6618,13 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6673,7 +6674,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6705,7 +6706,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6728,13 +6729,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6785,7 +6786,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6803,28 +6804,28 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E45" t="s" s="2">
         <v>42</v>
@@ -6845,10 +6846,10 @@
         <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6899,7 +6900,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6917,21 +6918,21 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6954,13 +6955,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7011,7 +7012,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7029,10 +7030,10 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -7043,7 +7044,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7069,10 +7070,10 @@
         <v>148</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7102,10 +7103,10 @@
         <v>152</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>41</v>
@@ -7123,7 +7124,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7141,21 +7142,21 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7181,10 +7182,10 @@
         <v>148</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7214,10 +7215,10 @@
         <v>152</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>41</v>
@@ -7235,7 +7236,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7253,21 +7254,21 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7290,13 +7291,13 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7347,7 +7348,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7365,10 +7366,10 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7379,7 +7380,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7402,13 +7403,13 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7459,7 +7460,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7474,13 +7475,13 @@
         <v>63</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
@@ -7491,7 +7492,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7603,7 +7604,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7717,11 +7718,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7743,10 +7744,10 @@
         <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>126</v>
@@ -7801,7 +7802,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7833,7 +7834,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7859,10 +7860,10 @@
         <v>148</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7889,13 +7890,13 @@
         <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>41</v>
@@ -7913,7 +7914,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7928,13 +7929,13 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7945,14 +7946,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E55" t="s" s="2">
         <v>51</v>
@@ -7970,16 +7971,16 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8029,7 +8030,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>51</v>
@@ -8044,16 +8045,16 @@
         <v>63</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -8061,7 +8062,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8084,13 +8085,13 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8141,7 +8142,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8156,13 +8157,13 @@
         <v>63</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8173,7 +8174,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8199,10 +8200,10 @@
         <v>148</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8232,10 +8233,10 @@
         <v>152</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>41</v>
@@ -8253,7 +8254,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8268,13 +8269,13 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8285,7 +8286,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8308,13 +8309,13 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8365,7 +8366,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8380,7 +8381,7 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>41</v>
@@ -8397,7 +8398,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8420,23 +8421,23 @@
         <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q59" t="s" s="2">
         <v>41</v>
@@ -8481,7 +8482,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8499,7 +8500,7 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>94</v>
@@ -8513,7 +8514,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8539,10 +8540,10 @@
         <v>148</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8572,10 +8573,10 @@
         <v>152</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>41</v>
@@ -8593,7 +8594,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8625,7 +8626,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8648,13 +8649,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8705,7 +8706,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8717,7 +8718,7 @@
         <v>41</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
@@ -8737,7 +8738,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8849,7 +8850,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8963,11 +8964,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8989,10 +8990,10 @@
         <v>97</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>126</v>
@@ -9047,7 +9048,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9079,7 +9080,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9105,10 +9106,10 @@
         <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9159,7 +9160,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9177,7 +9178,7 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>94</v>
@@ -9191,7 +9192,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9217,10 +9218,10 @@
         <v>65</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9271,7 +9272,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9303,7 +9304,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9326,13 +9327,13 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9383,7 +9384,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9401,7 +9402,7 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>94</v>
@@ -9415,7 +9416,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9438,13 +9439,13 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9495,7 +9496,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9513,7 +9514,7 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>94</v>
@@ -9527,7 +9528,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9553,10 +9554,10 @@
         <v>148</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9586,10 +9587,10 @@
         <v>152</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>41</v>
@@ -9607,7 +9608,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9625,7 +9626,7 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>94</v>
@@ -9639,7 +9640,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9665,10 +9666,10 @@
         <v>148</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9698,10 +9699,10 @@
         <v>152</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>41</v>
@@ -9719,7 +9720,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9751,7 +9752,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9774,16 +9775,16 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9833,7 +9834,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9851,10 +9852,10 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9865,7 +9866,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9977,7 +9978,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10091,11 +10092,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10117,10 +10118,10 @@
         <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>126</v>
@@ -10175,7 +10176,7 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10207,7 +10208,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10230,13 +10231,13 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10287,7 +10288,7 @@
         <v>41</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10305,10 +10306,10 @@
         <v>41</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>41</v>
@@ -10319,7 +10320,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10342,13 +10343,13 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10399,7 +10400,7 @@
         <v>41</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10417,10 +10418,10 @@
         <v>41</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
@@ -10431,7 +10432,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10454,13 +10455,13 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10511,7 +10512,7 @@
         <v>41</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10529,10 +10530,10 @@
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10543,7 +10544,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10566,13 +10567,13 @@
         <v>41</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10611,17 +10612,17 @@
         <v>41</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -10653,7 +10654,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10765,7 +10766,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10879,11 +10880,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10905,10 +10906,10 @@
         <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>126</v>
@@ -10963,7 +10964,7 @@
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -10995,7 +10996,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11021,10 +11022,10 @@
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11075,7 +11076,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11107,7 +11108,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11130,13 +11131,13 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11187,7 +11188,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11219,7 +11220,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11245,10 +11246,10 @@
         <v>148</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11278,10 +11279,10 @@
         <v>152</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>41</v>
@@ -11299,7 +11300,7 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11331,7 +11332,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11354,16 +11355,16 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11413,7 +11414,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>51</v>
@@ -11445,7 +11446,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11468,16 +11469,16 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11527,7 +11528,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11559,10 +11560,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>41</v>
@@ -11584,13 +11585,13 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11641,7 +11642,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11673,7 +11674,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11785,7 +11786,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11899,11 +11900,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11925,10 +11926,10 @@
         <v>97</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>126</v>
@@ -11983,7 +11984,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12015,7 +12016,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12041,10 +12042,10 @@
         <v>53</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12095,7 +12096,7 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12127,7 +12128,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12150,13 +12151,13 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12207,7 +12208,7 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12239,14 +12240,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E93" t="s" s="2">
         <v>42</v>
@@ -12267,10 +12268,10 @@
         <v>148</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12301,7 +12302,7 @@
       </c>
       <c r="X93" s="2"/>
       <c r="Y93" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>41</v>
@@ -12319,7 +12320,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12351,14 +12352,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E94" t="s" s="2">
         <v>51</v>
@@ -12376,16 +12377,16 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12435,7 +12436,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>51</v>
@@ -12467,41 +12468,41 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D95" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J95" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="E95" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>508</v>
-      </c>
       <c r="K95" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12551,7 +12552,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -1505,7 +1505,7 @@
     <t>The protocol (set of recommendations) being followed by the provider who administered the dose.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:authority.resolve()}
+    <t xml:space="preserve">type:authority}
 </t>
   </si>
   <si>
@@ -1780,7 +1780,7 @@
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="85.515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="25.70703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$113</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4070" uniqueCount="581">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Immunization</t>
+    <t>http://hl7.org/fhir/uv/ips/StructureDefinition/Immunization-pre-uv-ips</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -255,10 +255,13 @@
     <t>*</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Immunization event information</t>
   </si>
   <si>
-    <t>Describes the event of a patient being administered a vaccine or a record of an immunization as reported by a patient, a clinician or another party.</t>
+    <t>Describes the event of a patient being administered a vaccination or a record of a vaccination as reported by a patient, a clinician or another party and may include vaccine reaction information and what vaccination protocol was followed</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -280,9 +283,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">string
 </t>
   </si>
@@ -622,31 +622,48 @@
     <t>Vaccine or prophylaxis</t>
   </si>
   <si>
-    <t>Vaccine product administered</t>
-  </si>
-  <si>
-    <t>Vaccine that was administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>The code for vaccine product administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/vaccine-code</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>RXA-5</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
+  </si>
+  <si>
+    <t>Vaccine that was administered or was to be administered.Several kinds of vaccine product coding could be provided.
+     The IPS assumes that either the type of the vaccine for particular disease or diseases (e.g. MMR vaccine) against which the patient has been immunised is provided; or the known absent / unknown code.
+     Other coded information can be provided as well as: the IDMP Pharmaceutical Product Identifiers (PhPID), Medicinal Product Identifier (MPID), Packaged Medicinal Product Identifier (PCID), when available, or equivalent coded concepts; the WHO ATC codes; or any other kind of code that that identifies, classifies or cluster the administered product.</t>
+  </si>
+  <si>
+    <t>Vaccine that was administered or was to be administered. Several kinds of vaccine product coding could be provided.
+The IPS assumes that either the type of the vaccine for particular disease or diseases (e.g. MMR vaccine) against which the patient has been immunized is provided; or the known absent / unknown.
+    Other coded information can be provided as well as:
+    1. The IDMP Pharmaceutical Product Identifier (PhPID), Level 1, [Substance(s)]. Example: Amoxicillin and Clavulanate Potassium; or any other equivalent coded concept.
+    2. The IDMP Pharmaceutical Product Identifier (PhPID), Level 2 [Substance(s) + Strength + reference strength]. Example: Amoxicillin 875 mg and Clavulanate Potassium 125 mg; or any other equivalent coded concept.
+    3. The IDMP Pharmaceutical Product Identifier (PhPID), Level 3 [Substance(s) + administrable dose form]. Example: Amoxicillin and Clavulanate Potassium, Oral Tablet; or any other equivalent coded concept.
+    4. The IDMP Pharmaceutical Product Identifier (PhPID), Level 4 [Substance(s) + strength + reference strength + administrable dose form]. Example: Amoxicillin 875 mg and clavulanate potassium 125 mg, oral tablet; or any other equivalent coded concept.
+    5. The IDMP Medicinal Product Identifier (MPID) or any equivalent Medicinal Product Identifier. IDMP MPID uniquely identifies a Medicinal Product, reflecting (but not replacing) any other authorization numbers allocated by a regulator. MPID implies one (set of) PhPID.     The MPID shall use a common segment pattern related to a Medicinal Product, which, when each segment is valued shall define a specific MPID concept.
+    6. The IDMP Packaged Medicinal Product Identifier (PCID) or any equivalent Packaged Medicinal Product Identifier.     Uniquely identifies a Medicinal Product based on its packaging. This implies one MPID can be associated with more than one PCID, if the same Medicinal Product has more than one type of package.
+    7. Any other kind of code that that identifies, classifies or clusters the administered product (e.g. the medicinal product or the product class).
+    The value sets used for the PhPID, MPID and PCID identifiers are provisional and include only few equivalent concepts used for exemplification purposes, they will be updated with real IDMP identifiers when they will become available.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
+    <t>The type of vaccine for particular disease or diseases against which the patient has been immunised.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/vaccines-uv-ips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>Discriminated by bound value set</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.id</t>
@@ -682,17 +699,17 @@
     <t>Immunization.vaccineCode.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {http://hl7.org/fhir/uv/ips/StructureDefinition/Coding-uv-ips}
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
+    <t>A reference to a code defined by a terminology system</t>
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.</t>
   </si>
   <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
@@ -705,10 +722,10 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
   <si>
     <t>ddccVaccine</t>
@@ -808,6 +825,49 @@
   </si>
   <si>
     <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.display.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.display.extension</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {translation}
+</t>
+  </si>
+  <si>
+    <t>Language Translation (Localization)</t>
+  </si>
+  <si>
+    <t>Language translation from base language of resource to another language.</t>
+  </si>
+  <si>
+    <t>ST.translation</t>
+  </si>
+  <si>
+    <t>Immunization.vaccineCode.coding.display.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.coding.userSelected</t>
@@ -847,7 +907,7 @@
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
+    <t>The text should be at the displayName level and not on this level.</t>
   </si>
   <si>
     <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
@@ -860,6 +920,54 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>vaccineGPSCode</t>
+  </si>
+  <si>
+    <t>Code for vaccine from the SNOMED CT GPS code set</t>
+  </si>
+  <si>
+    <t>Code for a vaccine that is selected from the SNOMED CT GPS code set.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/vaccines-gps-uv-ips</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>RXA-5</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/consumable/manfacturedProduct/manufacturedMaterial/realmCode/code</t>
+  </si>
+  <si>
+    <t>atcClass</t>
+  </si>
+  <si>
+    <t>WHO ATC classification</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/whoatc-uv-ips</t>
+  </si>
+  <si>
+    <t>absentOrUnknownImmunization</t>
+  </si>
+  <si>
+    <t>Absent Unknown Immunization</t>
+  </si>
+  <si>
+    <t>A reference to a code indicating that there there are no known immunizations or that this information is unknown.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-immunizations-uv-ips</t>
   </si>
   <si>
     <t>Immunization.patient</t>
@@ -887,157 +995,13 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>Immunization.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter immunization was part of</t>
-  </si>
-  <si>
-    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
-  </si>
-  <si>
-    <t>Event.context</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>component-&gt;EncounterEvent</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>Immunization.occurrence[x]</t>
-  </si>
-  <si>
-    <t>Date of vaccination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Vaccine administration date</t>
-  </si>
-  <si>
-    <t>Date vaccine administered or was to be administered.</t>
-  </si>
-  <si>
-    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>RXA-3</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
-  </si>
-  <si>
-    <t>Immunization.recorded</t>
-  </si>
-  <si>
-    <t>When the immunization was first captured in the subject's record</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Immunization.primarySource</t>
-  </si>
-  <si>
-    <t>Indicates context the data was recorded in</t>
-  </si>
-  <si>
-    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
-  </si>
-  <si>
-    <t>Reflects the “reliability” of the content.</t>
-  </si>
-  <si>
-    <t>RXA-9</t>
-  </si>
-  <si>
-    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
-  </si>
-  <si>
-    <t>FiveWs.source</t>
-  </si>
-  <si>
-    <t>Immunization.reportOrigin</t>
-  </si>
-  <si>
-    <t>Indicates the source of a secondarily reported record</t>
-  </si>
-  <si>
-    <t>The source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
-  </si>
-  <si>
-    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
-  </si>
-  <si>
-    <t>The source of the data for a record which is not from a primary source.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
-  </si>
-  <si>
-    <t>Immunization.location</t>
-  </si>
-  <si>
-    <t>Administering centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where immunization occurred</t>
-  </si>
-  <si>
-    <t>The service delivery location where the vaccine administration occurred.</t>
-  </si>
-  <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>Immunization.location.id</t>
-  </si>
-  <si>
-    <t>Immunization.location.extension</t>
-  </si>
-  <si>
-    <t>Immunization.location.reference</t>
+    <t>Immunization.patient.id</t>
+  </si>
+  <si>
+    <t>Immunization.patient.extension</t>
+  </si>
+  <si>
+    <t>Immunization.patient.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -1056,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t>Immunization.location.type</t>
+    <t>Immunization.patient.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -1081,7 +1045,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Immunization.location.identifier</t>
+    <t>Immunization.patient.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1102,19 +1066,203 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>Immunization.patient.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>Immunization.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter immunization was part of</t>
+  </si>
+  <si>
+    <t>The visit or admission or other contact between patient and health care provider the immunization was performed as part of.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>component-&gt;EncounterEvent</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x]</t>
+  </si>
+  <si>
+    <t>Date of vaccination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Vaccine administration date</t>
+  </si>
+  <si>
+    <t>Date vaccine administered or was to be administered.</t>
+  </si>
+  <si>
+    <t>When immunizations are given a specific date and time should always be known.   When immunizations are patient reported, a specific date might not be known.  Although partial dates are allowed, an adult patient might not be able to recall the year a childhood immunization was given. An exact date is always preferable, but the use of the String data type is acceptable when an exact date is not known. A small number of vaccines (e.g. live oral typhoid vaccine) are given as a series of patient self-administered dose over a span of time. In cases like this, often, only the first dose (typically a provider supervised dose) is recorded with the occurrence indicating the date/time of the first dose.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>RXA-3</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/effectiveTime/value</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x].id</t>
+  </si>
+  <si>
+    <t>Immunization.occurrence[x].extension</t>
+  </si>
+  <si>
+    <t>data-absent-reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason}
+</t>
+  </si>
+  <si>
+    <t>occurrence[x] absence reason</t>
+  </si>
+  <si>
+    <t>Provides a reason why the occurrence is missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>Immunization.recorded</t>
+  </si>
+  <si>
+    <t>When the immunization was first captured in the subject's record</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the immunization was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Immunization.primarySource</t>
+  </si>
+  <si>
+    <t>Indicates context the data was recorded in</t>
+  </si>
+  <si>
+    <t>An indication that the content of the record is based on information from the person who administered the vaccine. This reflects the context under which the data was originally recorded.</t>
+  </si>
+  <si>
+    <t>Reflects the “reliability” of the content.</t>
+  </si>
+  <si>
+    <t>RXA-9</t>
+  </si>
+  <si>
+    <t>immunization.uncertaintycode (if primary source=false, uncertainty=U)</t>
+  </si>
+  <si>
+    <t>FiveWs.source</t>
+  </si>
+  <si>
+    <t>Immunization.reportOrigin</t>
+  </si>
+  <si>
+    <t>Indicates the source of a secondarily reported record</t>
+  </si>
+  <si>
+    <t>The source of the data when the report of the immunization event is not based on information from the person who administered the vaccine.</t>
+  </si>
+  <si>
+    <t>Should not be populated if primarySource = True, not required even if primarySource = False.</t>
+  </si>
+  <si>
+    <t>The source of the data for a record which is not from a primary source.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
+  </si>
+  <si>
+    <t>Immunization.location</t>
+  </si>
+  <si>
+    <t>Administering centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where immunization occurred</t>
+  </si>
+  <si>
+    <t>The service delivery location where the vaccine administration occurred.</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>RXA-27  (or RXA-11, deprecated as of v2.7)</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].COCT_MT240000UV</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>Immunization.location.id</t>
+  </si>
+  <si>
+    <t>Immunization.location.extension</t>
+  </si>
+  <si>
+    <t>Immunization.location.reference</t>
+  </si>
+  <si>
+    <t>Immunization.location.type</t>
+  </si>
+  <si>
+    <t>Immunization.location.identifier</t>
+  </si>
+  <si>
     <t>Immunization.location.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Immunization.manufacturer</t>
@@ -1182,49 +1330,19 @@
     <t>Immunization.site</t>
   </si>
   <si>
-    <t>Body site vaccine  was administered</t>
-  </si>
-  <si>
-    <t>Body site where vaccine was administered.</t>
-  </si>
-  <si>
-    <t>The site at which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>observation.targetSiteCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/approachSiteCode/code</t>
+    <t>Concept - reference to a terminology or just  text</t>
+  </si>
+  <si>
+    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/target-site-uv-ips</t>
   </si>
   <si>
     <t>Immunization.route</t>
   </si>
   <si>
-    <t>How vaccine entered body</t>
-  </si>
-  <si>
-    <t>The path by which the vaccine product is taken into the body.</t>
-  </si>
-  <si>
-    <t>The route by which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/component/StructuredBody/component/section/entry/substanceAdministration/routeCode/code</t>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/medicine-route-of-administration</t>
   </si>
   <si>
     <t>Immunization.doseQuantity</t>
@@ -1651,10 +1769,16 @@
     <t>The vaccine preventable disease the dose is being administered against.</t>
   </si>
   <si>
-    <t>The vaccine preventable disease the dose is being administered for.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-target-disease</t>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/targetDiseases-uv-ips</t>
+  </si>
+  <si>
+    <t>targetDiseaseGPSCode</t>
+  </si>
+  <si>
+    <t>Code for a disease the vaccination is against from the SNOMED CT GPS code set.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/targetDiseases-gps-uv-ips</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.doseNumber[x]</t>
@@ -2014,7 +2138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2023,8 +2147,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.7109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.2421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.54296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2033,7 +2157,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2046,7 +2170,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="94.37890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="85.515625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -2187,7 +2311,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -2203,7 +2327,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>75</v>
@@ -2215,10 +2339,10 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -2281,16 +2405,16 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>75</v>
@@ -2301,7 +2425,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2312,7 +2436,7 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>75</v>
@@ -2321,7 +2445,7 @@
         <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>87</v>
@@ -2389,7 +2513,7 @@
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -2426,7 +2550,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>75</v>
@@ -2435,7 +2559,7 @@
         <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>93</v>
@@ -2501,7 +2625,7 @@
         <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>75</v>
@@ -2538,16 +2662,16 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>99</v>
@@ -2615,7 +2739,7 @@
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -2652,7 +2776,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -2729,7 +2853,7 @@
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
@@ -2766,7 +2890,7 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>75</v>
@@ -2843,7 +2967,7 @@
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
@@ -3105,13 +3229,13 @@
         <v>139</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -3224,10 +3348,10 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -3337,13 +3461,13 @@
         <v>148</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -3456,10 +3580,10 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -3574,7 +3698,7 @@
         <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>75</v>
@@ -3783,7 +3907,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>171</v>
       </c>
@@ -3793,19 +3917,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>105</v>
@@ -3870,10 +3994,10 @@
         <v>171</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
@@ -3910,7 +4034,7 @@
         <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>75</v>
@@ -3987,7 +4111,7 @@
         <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>75</v>
@@ -4011,7 +4135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>191</v>
       </c>
@@ -4023,30 +4147,32 @@
         <v>192</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>75</v>
@@ -4071,37 +4197,37 @@
         <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>75</v>
@@ -4110,24 +4236,24 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>201</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4138,7 +4264,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>75</v>
@@ -4153,10 +4279,10 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4207,13 +4333,13 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>75</v>
@@ -4228,7 +4354,7 @@
         <v>75</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>75</v>
@@ -4239,7 +4365,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4265,10 +4391,10 @@
         <v>131</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>160</v>
@@ -4312,7 +4438,7 @@
         <v>134</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>75</v>
@@ -4321,7 +4447,7 @@
         <v>135</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4342,7 +4468,7 @@
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -4353,7 +4479,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4361,34 +4487,34 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>75</v>
@@ -4425,7 +4551,7 @@
         <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
@@ -4435,7 +4561,7 @@
         <v>135</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -4444,7 +4570,7 @@
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>97</v>
@@ -4453,10 +4579,10 @@
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4467,44 +4593,44 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>75</v>
@@ -4533,7 +4659,7 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>75</v>
@@ -4551,7 +4677,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -4560,7 +4686,7 @@
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>97</v>
@@ -4569,10 +4695,10 @@
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4583,7 +4709,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4594,7 +4720,7 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>75</v>
@@ -4609,10 +4735,10 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4663,13 +4789,13 @@
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>75</v>
@@ -4684,7 +4810,7 @@
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>75</v>
@@ -4695,7 +4821,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4721,10 +4847,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>160</v>
@@ -4768,7 +4894,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>75</v>
@@ -4777,7 +4903,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4798,7 +4924,7 @@
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>75</v>
@@ -4809,7 +4935,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4817,34 +4943,34 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>75</v>
@@ -4893,13 +5019,13 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>75</v>
@@ -4911,10 +5037,10 @@
         <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>75</v>
@@ -4923,9 +5049,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4936,28 +5062,28 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5007,13 +5133,13 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>75</v>
@@ -5025,10 +5151,10 @@
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>75</v>
@@ -5039,7 +5165,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5047,32 +5173,32 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>105</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -5121,13 +5247,13 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>75</v>
@@ -5139,10 +5265,10 @@
         <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>75</v>
@@ -5151,9 +5277,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5164,29 +5290,29 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>75</v>
@@ -5235,13 +5361,13 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
@@ -5253,10 +5379,10 @@
         <v>75</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -5267,7 +5393,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5278,7 +5404,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>75</v>
@@ -5287,10 +5413,10 @@
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>257</v>
@@ -5298,12 +5424,8 @@
       <c r="L29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>75</v>
       </c>
@@ -5351,28 +5473,28 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5383,7 +5505,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5394,32 +5516,28 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>75</v>
       </c>
@@ -5455,40 +5573,38 @@
         <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>75</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5497,38 +5613,40 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5579,31 +5697,31 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>279</v>
+        <v>75</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>75</v>
@@ -5611,7 +5729,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5622,7 +5740,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>75</v>
@@ -5634,13 +5752,13 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5664,7 +5782,7 @@
         <v>75</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>75</v>
@@ -5691,75 +5809,75 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D33" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5807,13 +5925,13 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>75</v>
@@ -5822,24 +5940,24 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>75</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>298</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5850,28 +5968,32 @@
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>290</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5919,13 +6041,13 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
@@ -5937,23 +6059,25 @@
         <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5962,29 +6086,27 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>75</v>
@@ -6009,13 +6131,11 @@
         <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>75</v>
@@ -6033,13 +6153,13 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>75</v>
@@ -6048,26 +6168,28 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>75</v>
+        <v>295</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>75</v>
       </c>
@@ -6076,29 +6198,27 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>182</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>75</v>
@@ -6123,13 +6243,11 @@
         <v>75</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>75</v>
@@ -6147,13 +6265,13 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>311</v>
+        <v>191</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>75</v>
@@ -6162,55 +6280,55 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>75</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D37" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>320</v>
+        <v>182</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6237,13 +6355,11 @@
         <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>302</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>75</v>
@@ -6261,13 +6377,13 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>318</v>
+        <v>191</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>75</v>
@@ -6276,24 +6392,24 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>75</v>
+        <v>295</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6301,28 +6417,28 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6373,31 +6489,31 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>75</v>
+        <v>307</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6405,18 +6521,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>75</v>
@@ -6428,17 +6544,15 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>75</v>
@@ -6475,31 +6589,31 @@
         <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>75</v>
@@ -6508,7 +6622,7 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6519,18 +6633,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>75</v>
@@ -6539,19 +6653,19 @@
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>209</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>210</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
+        <v>160</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6589,31 +6703,31 @@
         <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>334</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>75</v>
@@ -6622,7 +6736,7 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>75</v>
@@ -6631,9 +6745,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6641,31 +6755,31 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6691,13 +6805,13 @@
         <v>75</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>339</v>
+        <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>341</v>
+        <v>75</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>75</v>
@@ -6715,16 +6829,16 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>97</v>
@@ -6747,7 +6861,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6758,7 +6872,7 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>75</v>
@@ -6767,19 +6881,19 @@
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6805,13 +6919,13 @@
         <v>75</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>75</v>
@@ -6829,13 +6943,13 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>75</v>
@@ -6850,7 +6964,7 @@
         <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>348</v>
+        <v>128</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>75</v>
@@ -6859,9 +6973,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6869,31 +6983,31 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6943,13 +7057,13 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
@@ -6964,7 +7078,7 @@
         <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6973,9 +7087,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6986,27 +7100,29 @@
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>355</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>75</v>
@@ -7055,13 +7171,13 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>75</v>
@@ -7073,37 +7189,35 @@
         <v>75</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>358</v>
+        <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>359</v>
+        <v>128</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>360</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D45" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -7112,13 +7226,13 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>339</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7169,13 +7283,13 @@
         <v>75</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
@@ -7184,55 +7298,59 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="E46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>75</v>
@@ -7281,13 +7399,13 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
@@ -7296,24 +7414,24 @@
         <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>75</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7324,7 +7442,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -7336,13 +7454,13 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>375</v>
+        <v>204</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>205</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7369,13 +7487,13 @@
         <v>75</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>377</v>
+        <v>75</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>75</v>
@@ -7393,50 +7511,50 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>374</v>
+        <v>206</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>379</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>380</v>
+        <v>207</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>381</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>75</v>
@@ -7448,15 +7566,17 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>383</v>
+        <v>209</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>75</v>
@@ -7481,65 +7601,67 @@
         <v>75</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>386</v>
+        <v>75</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>382</v>
+        <v>212</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>387</v>
+        <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>388</v>
+        <v>207</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>389</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>75</v>
       </c>
@@ -7548,10 +7670,10 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -7560,13 +7682,13 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7617,28 +7739,28 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>212</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7649,7 +7771,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7660,7 +7782,7 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>75</v>
@@ -7669,16 +7791,16 @@
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7729,13 +7851,13 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>75</v>
@@ -7744,16 +7866,16 @@
         <v>97</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>401</v>
+        <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>75</v>
@@ -7761,7 +7883,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7772,7 +7894,7 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>75</v>
@@ -7781,18 +7903,20 @@
         <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>203</v>
+        <v>370</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>75</v>
@@ -7841,31 +7965,31 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>205</v>
+        <v>369</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>75</v>
+        <v>373</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>75</v>
@@ -7873,18 +7997,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>75</v>
@@ -7896,16 +8020,16 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>208</v>
+        <v>377</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>209</v>
+        <v>378</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>160</v>
+        <v>379</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7931,13 +8055,13 @@
         <v>75</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>75</v>
+        <v>381</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>75</v>
@@ -7955,75 +8079,73 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>211</v>
+        <v>376</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>75</v>
+        <v>373</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>206</v>
+        <v>382</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="E53" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>75</v>
       </c>
@@ -8071,31 +8193,31 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>409</v>
+        <v>383</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>128</v>
+        <v>390</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>75</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -8103,7 +8225,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8114,7 +8236,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>75</v>
@@ -8123,16 +8245,16 @@
         <v>75</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>204</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8159,13 +8281,13 @@
         <v>75</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>339</v>
+        <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>413</v>
+        <v>75</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>75</v>
@@ -8183,28 +8305,28 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>206</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>415</v>
+        <v>75</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>416</v>
+        <v>207</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
@@ -8215,20 +8337,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>75</v>
@@ -8237,19 +8357,19 @@
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>419</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>420</v>
+        <v>209</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
+        <v>210</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>422</v>
+        <v>160</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8287,43 +8407,43 @@
         <v>75</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>212</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>423</v>
+        <v>75</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>207</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>425</v>
+        <v>75</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8331,7 +8451,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8342,7 +8462,7 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>75</v>
@@ -8351,18 +8471,20 @@
         <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>427</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>428</v>
+        <v>314</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>75</v>
@@ -8411,28 +8533,28 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>426</v>
+        <v>317</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>430</v>
+        <v>75</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>431</v>
+        <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>128</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8443,7 +8565,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8454,7 +8576,7 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>75</v>
@@ -8463,18 +8585,20 @@
         <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>434</v>
+        <v>320</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>75</v>
@@ -8499,13 +8623,13 @@
         <v>75</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>186</v>
+        <v>323</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>436</v>
+        <v>324</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>437</v>
+        <v>325</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>75</v>
@@ -8523,13 +8647,13 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>433</v>
+        <v>326</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>75</v>
@@ -8538,13 +8662,13 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>438</v>
+        <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>439</v>
+        <v>128</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8555,7 +8679,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8566,7 +8690,7 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>75</v>
@@ -8575,18 +8699,20 @@
         <v>75</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>441</v>
+        <v>164</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>434</v>
+        <v>328</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>75</v>
@@ -8635,13 +8761,13 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>440</v>
+        <v>331</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>75</v>
@@ -8650,13 +8776,13 @@
         <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>443</v>
+        <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -8665,9 +8791,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8675,39 +8801,37 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>445</v>
+        <v>334</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>446</v>
+        <v>335</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>447</v>
+        <v>336</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P59" t="s" s="2">
-        <v>448</v>
-      </c>
+      <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8751,13 +8875,13 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>444</v>
+        <v>337</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>75</v>
@@ -8769,7 +8893,7 @@
         <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>449</v>
+        <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>128</v>
@@ -8781,9 +8905,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8794,10 +8918,10 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -8806,13 +8930,13 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>182</v>
+        <v>399</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8839,13 +8963,13 @@
         <v>75</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>453</v>
+        <v>75</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>454</v>
+        <v>75</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -8863,13 +8987,13 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>75</v>
@@ -8881,35 +9005,37 @@
         <v>75</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>128</v>
+        <v>403</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="E61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>75</v>
@@ -8918,13 +9044,13 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>397</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>457</v>
+        <v>408</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8975,39 +9101,39 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>458</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>128</v>
+        <v>410</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>75</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9018,7 +9144,7 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>75</v>
@@ -9030,13 +9156,13 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>413</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>203</v>
+        <v>414</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>204</v>
+        <v>415</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9087,28 +9213,28 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>205</v>
+        <v>412</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>75</v>
+        <v>416</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>206</v>
+        <v>417</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>75</v>
@@ -9117,23 +9243,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>75</v>
@@ -9142,16 +9268,16 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>208</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>209</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9177,13 +9303,11 @@
         <v>75</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>75</v>
+        <v>421</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>75</v>
@@ -9201,28 +9325,28 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>211</v>
+        <v>418</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>75</v>
@@ -9231,45 +9355,43 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>406</v>
+        <v>75</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>75</v>
       </c>
@@ -9293,13 +9415,11 @@
         <v>75</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>75</v>
+        <v>423</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>75</v>
@@ -9317,28 +9437,28 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>75</v>
@@ -9349,7 +9469,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9360,7 +9480,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>75</v>
@@ -9372,13 +9492,13 @@
         <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>425</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9429,13 +9549,13 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>75</v>
@@ -9447,10 +9567,10 @@
         <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>128</v>
+        <v>429</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9459,9 +9579,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9472,25 +9592,25 @@
         <v>76</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>99</v>
+        <v>431</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9541,13 +9661,13 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>75</v>
@@ -9556,13 +9676,13 @@
         <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>75</v>
+        <v>434</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>75</v>
+        <v>435</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>128</v>
+        <v>436</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>75</v>
@@ -9573,7 +9693,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9584,7 +9704,7 @@
         <v>76</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>75</v>
@@ -9596,13 +9716,13 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>290</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>470</v>
+        <v>204</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>471</v>
+        <v>205</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9653,28 +9773,28 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>469</v>
+        <v>206</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>472</v>
+        <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
@@ -9685,18 +9805,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>75</v>
@@ -9708,15 +9828,17 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>474</v>
+        <v>209</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>75</v>
@@ -9765,28 +9887,28 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>473</v>
+        <v>212</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>476</v>
+        <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -9797,11 +9919,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9814,22 +9936,26 @@
         <v>75</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>75</v>
       </c>
@@ -9853,13 +9979,13 @@
         <v>75</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>480</v>
+        <v>75</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>481</v>
+        <v>75</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>75</v>
@@ -9877,7 +10003,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -9889,13 +10015,13 @@
         <v>75</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>482</v>
+        <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>128</v>
@@ -9909,7 +10035,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9920,7 +10046,7 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>75</v>
@@ -9929,16 +10055,16 @@
         <v>75</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>182</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9965,13 +10091,13 @@
         <v>75</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>186</v>
+        <v>323</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>75</v>
@@ -9989,13 +10115,13 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>75</v>
@@ -10004,13 +10130,13 @@
         <v>97</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>75</v>
+        <v>449</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>128</v>
+        <v>450</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>75</v>
@@ -10019,41 +10145,43 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="E71" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10103,13 +10231,13 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>488</v>
+        <v>451</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
@@ -10118,16 +10246,16 @@
         <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>75</v>
+        <v>457</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>492</v>
+        <v>75</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>75</v>
+        <v>459</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>75</v>
@@ -10135,7 +10263,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10146,7 +10274,7 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>75</v>
@@ -10155,16 +10283,16 @@
         <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>87</v>
+        <v>461</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>203</v>
+        <v>462</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>204</v>
+        <v>463</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10215,28 +10343,28 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>205</v>
+        <v>460</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>75</v>
+        <v>465</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>206</v>
+        <v>466</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>75</v>
@@ -10247,11 +10375,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10270,17 +10398,15 @@
         <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>208</v>
+        <v>468</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>75</v>
@@ -10305,13 +10431,13 @@
         <v>75</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>75</v>
+        <v>470</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>75</v>
+        <v>471</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>75</v>
@@ -10329,7 +10455,7 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>211</v>
+        <v>467</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10341,16 +10467,16 @@
         <v>75</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>75</v>
+        <v>472</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>206</v>
+        <v>473</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>75</v>
@@ -10361,11 +10487,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>406</v>
+        <v>75</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10378,26 +10504,22 @@
         <v>75</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>131</v>
+        <v>475</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>75</v>
       </c>
@@ -10445,7 +10567,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>409</v>
+        <v>474</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10457,10 +10579,10 @@
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>75</v>
+        <v>477</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>75</v>
@@ -10477,7 +10599,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10488,32 +10610,36 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="Q75" t="s" s="2">
         <v>75</v>
       </c>
@@ -10557,13 +10683,13 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>75</v>
@@ -10575,10 +10701,10 @@
         <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>296</v>
+        <v>128</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>75</v>
@@ -10589,7 +10715,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10600,7 +10726,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>75</v>
@@ -10612,13 +10738,13 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>502</v>
+        <v>182</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10645,13 +10771,13 @@
         <v>75</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>75</v>
+        <v>487</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>75</v>
+        <v>488</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>75</v>
@@ -10669,13 +10795,13 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>75</v>
@@ -10687,10 +10813,10 @@
         <v>75</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>505</v>
+        <v>75</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>506</v>
+        <v>128</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>75</v>
@@ -10701,7 +10827,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10712,7 +10838,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>75</v>
@@ -10724,13 +10850,13 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>256</v>
+        <v>431</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10781,28 +10907,28 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>492</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>510</v>
+        <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>511</v>
+        <v>128</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>75</v>
@@ -10813,7 +10939,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10821,13 +10947,13 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>75</v>
@@ -10836,13 +10962,13 @@
         <v>75</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>397</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>513</v>
+        <v>204</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>514</v>
+        <v>205</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10881,29 +11007,31 @@
         <v>75</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AB78" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>512</v>
+        <v>206</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>75</v>
@@ -10912,7 +11040,7 @@
         <v>75</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>75</v>
@@ -10923,18 +11051,18 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>75</v>
@@ -10946,15 +11074,17 @@
         <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>75</v>
@@ -11003,19 +11133,19 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>75</v>
@@ -11024,7 +11154,7 @@
         <v>75</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>75</v>
@@ -11035,11 +11165,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>157</v>
+        <v>440</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11052,24 +11182,26 @@
         <v>75</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>208</v>
+        <v>441</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>209</v>
+        <v>442</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>75</v>
       </c>
@@ -11117,7 +11249,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>211</v>
+        <v>443</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -11138,7 +11270,7 @@
         <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>75</v>
@@ -11149,43 +11281,39 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>406</v>
+        <v>75</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>407</v>
+        <v>497</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>75</v>
       </c>
@@ -11233,25 +11361,25 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>409</v>
+        <v>496</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>75</v>
+        <v>499</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>128</v>
@@ -11265,7 +11393,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11276,7 +11404,7 @@
         <v>76</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>75</v>
@@ -11288,13 +11416,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11345,13 +11473,13 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>75</v>
@@ -11377,7 +11505,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11388,7 +11516,7 @@
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>75</v>
@@ -11400,13 +11528,13 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11457,13 +11585,13 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
@@ -11475,7 +11603,7 @@
         <v>75</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>75</v>
+        <v>506</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>128</v>
@@ -11489,7 +11617,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11500,7 +11628,7 @@
         <v>76</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>75</v>
@@ -11512,13 +11640,13 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11545,13 +11673,13 @@
         <v>75</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>528</v>
+        <v>75</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>529</v>
+        <v>75</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>75</v>
@@ -11569,13 +11697,13 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
@@ -11587,7 +11715,7 @@
         <v>75</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>75</v>
+        <v>510</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>128</v>
@@ -11601,7 +11729,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11609,10 +11737,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>75</v>
@@ -11624,17 +11752,15 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>531</v>
+        <v>182</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>75</v>
@@ -11659,13 +11785,13 @@
         <v>75</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>75</v>
+        <v>514</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>75</v>
+        <v>515</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>75</v>
@@ -11683,13 +11809,13 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
@@ -11701,7 +11827,7 @@
         <v>75</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>75</v>
+        <v>516</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>128</v>
@@ -11715,7 +11841,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11726,7 +11852,7 @@
         <v>76</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>75</v>
@@ -11738,17 +11864,15 @@
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>531</v>
+        <v>182</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>75</v>
@@ -11773,13 +11897,13 @@
         <v>75</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>75</v>
+        <v>520</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>75</v>
+        <v>521</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>75</v>
@@ -11797,13 +11921,13 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
@@ -11827,25 +11951,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -11854,15 +11976,17 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>75</v>
@@ -11911,7 +12035,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -11929,10 +12053,10 @@
         <v>75</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>75</v>
+        <v>526</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>128</v>
+        <v>527</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>75</v>
@@ -11943,7 +12067,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11954,7 +12078,7 @@
         <v>76</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>75</v>
@@ -11969,10 +12093,10 @@
         <v>87</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12023,13 +12147,13 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>75</v>
@@ -12044,7 +12168,7 @@
         <v>75</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>75</v>
@@ -12055,7 +12179,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12081,10 +12205,10 @@
         <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>160</v>
@@ -12137,7 +12261,7 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -12158,7 +12282,7 @@
         <v>75</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>75</v>
@@ -12169,11 +12293,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12186,19 +12310,19 @@
         <v>75</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>160</v>
@@ -12253,7 +12377,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>76</v>
@@ -12285,7 +12409,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12296,7 +12420,7 @@
         <v>76</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>75</v>
@@ -12308,13 +12432,13 @@
         <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>87</v>
+        <v>348</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12365,13 +12489,13 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
@@ -12383,10 +12507,10 @@
         <v>75</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>75</v>
+        <v>534</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>75</v>
@@ -12397,7 +12521,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12408,7 +12532,7 @@
         <v>76</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>75</v>
@@ -12420,13 +12544,13 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12477,13 +12601,13 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
@@ -12495,10 +12619,10 @@
         <v>75</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>75</v>
+        <v>539</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>128</v>
+        <v>540</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>75</v>
@@ -12509,20 +12633,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D93" t="s" s="2">
-        <v>540</v>
-      </c>
+      <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>75</v>
@@ -12534,13 +12656,13 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>526</v>
+        <v>542</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12567,35 +12689,37 @@
         <v>75</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X93" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE93" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>525</v>
-      </c>
       <c r="AF93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>75</v>
@@ -12607,10 +12731,10 @@
         <v>75</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>75</v>
+        <v>544</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>128</v>
+        <v>545</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>75</v>
@@ -12619,25 +12743,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D94" t="s" s="2">
-        <v>542</v>
-      </c>
+      <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>75</v>
@@ -12646,17 +12768,15 @@
         <v>75</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>543</v>
+        <v>431</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>75</v>
@@ -12693,25 +12813,23 @@
         <v>75</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="AB94" s="2"/>
       <c r="AC94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
@@ -12737,20 +12855,18 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D95" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>75</v>
@@ -12762,17 +12878,15 @@
         <v>75</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>543</v>
+        <v>87</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>536</v>
+        <v>204</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>75</v>
@@ -12821,38 +12935,2078 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>535</v>
+        <v>206</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI98" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL95" t="s" s="2">
+      <c r="AJ98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AM95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="AM98" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X100" s="2"/>
+      <c r="Y100" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X101" s="2"/>
+      <c r="Y101" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="E110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X110" s="2"/>
+      <c r="Y110" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X111" s="2"/>
+      <c r="Y111" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="E112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN95">
+  <autoFilter ref="A1:AN113">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12862,7 +15016,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI112">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
